--- a/Error_Phrases.xlsx
+++ b/Error_Phrases.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,6 +487,249 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>keep off</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>不接近某人</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Day36(8)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2025-05-28 16:02:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>come into</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>继承（遗产）</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Day17(15)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2025-05-28 16:04:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>be beside oneself</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>无法控制自己</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Day06(7)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2025-05-28 16:09:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>pull off</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>（通常指迅速地）脱下（衣服）</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Day12(8)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2025-05-28 16:10:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>flash on sb</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>突然意识到、猛然领悟</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Day37(9)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2025-05-28 16:10:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>set aside</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>留出</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Day14(9)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2025-05-28 16:12:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>get on famously</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>相处极好</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Day25(9)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2025-05-28 16:12:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>take sth (from sb)</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>夺取、控制</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Day35(7)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2025-05-28 16:13:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>be devoted to sb</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>深爱着某人</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Day24(10)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2025-05-28 16:14:00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Error_Phrases.xlsx
+++ b/Error_Phrases.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -730,6 +730,33 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>cut sb off from sth</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>使...与外界隔绝</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Day49(9)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2025-05-28 16:29:12</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Error_Phrases.xlsx
+++ b/Error_Phrases.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -757,6 +757,87 @@
         </is>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>refer to</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>涉及、提到</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Day27(8)</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2025-05-28 17:03:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>be meant to do</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>理应发生、应该</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Day35(7)</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2025-05-28 17:06:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>apply oneself to sth</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>努力、专心致志于某事</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Day25(9)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2025-05-28 17:06:28</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Error_Phrases.xlsx
+++ b/Error_Phrases.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -838,6 +838,87 @@
         </is>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>not by any means</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>一点也不、绝不</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Day22(10)</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2025-05-28 21:30:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>take advantage of sb</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>（不公正地）利用某人</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Day24(10)</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2025-05-28 21:33:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>be lost in sth</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>沉浸于、全神贯注</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Day17(15)</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2025-05-28 21:33:44</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Error_Phrases.xlsx
+++ b/Error_Phrases.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,6 +919,411 @@
         </is>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>stand in sb's way</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>阻止某人</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Day16(8)</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2025-05-29 11:25:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>let alone</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>更別提</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Day08(4)</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>《The unlikely pilgrimage of Harold Fry一个人的朝圣（蕾秋·乔伊斯）》</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2025-05-29 11:28:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>but for</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>倘若没有、要不是</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Day22(10)</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2025-05-29 11:35:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>thick with</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>充満的、密布的</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Day05(4)</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>《The unlikely pilgrimage of Harold Fry一个人的朝圣（蕾秋·乔伊斯）》</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2025-05-29 11:36:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>do for sb</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>杀死、严重伤害（某人）</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Day12(8)</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2025-05-29 11:36:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>at rest</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>安心</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Day48(6)</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2025-05-29 11:36:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>come to sth</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>总计为、加起来是</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Day29(11)</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2025-05-29 11:37:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>as to</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>至于、关于</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Day32(7)</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2025-05-29 11:37:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>on the spot</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>立即、马上</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Day42(10)</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2025-05-29 11:38:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>no better than</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>几乎等于、实际上和...一样</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Day28(8)</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2025-05-29 11:39:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>reason with sb</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>和某人讲道理、劝说某人</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Day15(14)</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2025-05-29 11:40:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>put away</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>积攒</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Day37(9)</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2025-05-29 11:40:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>at a disadvantage</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>处于劣势</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Day31(9)</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2025-05-29 11:42:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>make up one's mind</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>下定决心</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Day28(8)</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>2025-05-29 11:45:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>make the best of one's way</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>前往</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Day45(10)</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>2025-05-29 16:01:49</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Error_Phrases.xlsx
+++ b/Error_Phrases.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1324,6 +1324,546 @@
         </is>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>break sth off</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>（突然）终止、結束</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Day24(10)</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>2025-05-30 08:41:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>put up</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>收起</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Day42(10)</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>2025-05-30 08:42:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>blow one's nose</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>擤鼻子</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Day01(5)</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>《The unlikely pilgrimage of Harold Fry一个人的朝圣（蕾秋·乔伊斯）》</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>2025-05-30 08:44:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>impress sth upon sb</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>强调</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Day45(10)</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>2025-05-30 08:48:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>look upon sb</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>（以某种方式）看（对）待某人</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Day49(9)</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>2025-05-30 08:52:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>be about to</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>即将、行将、正要（做某事）</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Day86(3)</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>《The unlikely pilgrimage of Harold Fry一个人的朝圣（蕾秋·乔伊斯）》</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>2025-05-30 08:53:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>go by</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>（时间）过去</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Day91(7)</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>《The unlikely pilgrimage of Harold Fry一个人的朝圣（蕾秋·乔伊斯）》</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>2025-05-30 08:57:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>address sth to sb</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>向某人提出...</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Day17(15)</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>2025-05-30 10:07:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>put away</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>积攒</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Day37(9)</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>2025-05-30 10:08:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>strike in</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>插嘴</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Day24(10)</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>2025-05-30 10:11:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>on sb's account</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>为了某人的缘故</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Day41(7)</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>2025-05-30 10:15:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>add to...</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>增加</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Day03(17)</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>2025-05-30 10:15:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>meet with</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>经历、体验（不愉快的事）</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Day95(4)</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>《The unlikely pilgrimage of Harold Fry一个人的朝圣（蕾秋·乔伊斯）》</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>2025-05-30 10:19:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>keep up</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>(与...）齐步前进、并驾齐驱、跟上</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Day68(1)</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>《The unlikely pilgrimage of Harold Fry一个人的朝圣（蕾秋·乔伊斯）》</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>2025-05-30 10:40:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>steal a glance at</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>偷偷地看一眼、偷瞥</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Day41(10)</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>《The unlikely pilgrimage of Harold Fry一个人的朝圣（蕾秋·乔伊斯）》</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>2025-05-30 11:00:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>make a/the difference</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>有作用、有影响</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Day96(2)</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>《The unlikely pilgrimage of Harold Fry一个人的朝圣（蕾秋·乔伊斯）》</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>2025-05-30 11:04:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>come in</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>（潮水）上涨、涨潮</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Day97(4)</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>《The unlikely pilgrimage of Harold Fry一个人的朝圣（蕾秋·乔伊斯）》</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>2025-05-30 11:05:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>after all</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>毕竟、终归</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Day74(7)</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>《The unlikely pilgrimage of Harold Fry一个人的朝圣（蕾秋·乔伊斯）》</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>2025-05-30 11:05:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>take up</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>继续、把...接着进行下去</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Day01(5)</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>《The unlikely pilgrimage of Harold Fry一个人的朝圣（蕾秋·乔伊斯）》</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>2025-05-30 11:08:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>hold sth out</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>伸出手（或絡膊）、递出东西</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Day48(4)</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>《The unlikely pilgrimage of Harold Fry一个人的朝圣（蕾秋·乔伊斯）》</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>2025-05-30 11:09:52</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Error_Phrases.xlsx
+++ b/Error_Phrases.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1864,6 +1864,384 @@
         </is>
       </c>
     </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>no more than</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>只不过、仅仅</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Day85(6)</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>《The unlikely pilgrimage of Harold Fry一个人的朝圣（蕾秋·乔伊斯）》</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>2025-05-30 14:10:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>put out</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>熄灭</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Day19(9)</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>2025-05-30 14:14:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>help oneself （to sth）</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>自己取（食物等）</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Day15(4)</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>《The unlikely pilgrimage of Harold Fry一个人的朝圣（蕾秋·乔伊斯）》</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>2025-05-30 14:15:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>get on</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>继续做</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Day03(3)</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>《The unlikely pilgrimage of Harold Fry一个人的朝圣（蕾秋·乔伊斯）》</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>2025-05-30 14:17:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>catch someone's eye</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>被看到</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Day05(4)</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>《The unlikely pilgrimage of Harold Fry一个人的朝圣（蕾秋·乔伊斯）》</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>2025-05-30 14:18:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>be in place</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>准备妥当</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Day07(9)</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>2025-05-30 14:21:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>by no means</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>决不、一点也不</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Day40(8)</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>2025-05-30 14:22:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>think of sb as sth/sb</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>把...视为；把.....看作</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Day05(9)</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>2025-05-30 14:23:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>give up</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>投降、认输、放弃</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Day39(4)</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>《The unlikely pilgrimage of Harold Fry一个人的朝圣（蕾秋·乔伊斯）》</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>2025-05-30 14:50:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>make it</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>（尤指在困难情况下）准时到达、赶上</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Day32(4)</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>《The unlikely pilgrimage of Harold Fry一个人的朝圣（蕾秋·乔伊斯）》</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>2025-05-30 14:52:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>come on</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>(状态，情况）开始、来到、发生</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Day66(4)</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>《The unlikely pilgrimage of Harold Fry一个人的朝圣（蕾秋·乔伊斯）》</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>2025-05-30 14:54:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>make up sth</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>形成、组成、构成</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Day50(2)</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>《The unlikely pilgrimage of Harold Fry一个人的朝圣（蕾秋·乔伊斯）》</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>2025-05-30 14:55:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>see sth out</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>坚持到某事结束</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Day42(10)</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>2025-05-30 14:57:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>take advantage of sb</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>（不公正地）利用某人</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Day24(10)</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>2025-05-30 14:58:29</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Error_Phrases.xlsx
+++ b/Error_Phrases.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2242,6 +2242,60 @@
         </is>
       </c>
     </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>apart from</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>除了...外（都）、要不是</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Day82(5)</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>《The unlikely pilgrimage of Harold Fry一个人的朝圣（蕾秋·乔伊斯）》</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>2025-05-31 11:10:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>get at sb/sth</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>到达某处、接近某人（或某物）、够得着某物</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Day19(3)</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>《The unlikely pilgrimage of Harold Fry一个人的朝圣（蕾秋·乔伊斯）》</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>2025-05-31 11:13:16</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Error_Phrases.xlsx
+++ b/Error_Phrases.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E69"/>
+  <dimension ref="A1:E79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2296,6 +2296,276 @@
         </is>
       </c>
     </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>depart this life</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>离开人世、去世、亡故</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Day29(11)</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>2025-05-31 20:37:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>be short for</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>是某事物的简称</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Day73(6)</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>《The unlikely pilgrimage of Harold Fry一个人的朝圣（蕾秋·乔伊斯）》</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>2025-05-31 20:38:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>come up with sth</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>想出、提出（主意或计划）</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Day94(3)</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>《The unlikely pilgrimage of Harold Fry一个人的朝圣（蕾秋·乔伊斯）》</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>2025-05-31 20:39:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>on behalf of</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>代表</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Day41(7)</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>2025-05-31 20:43:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>nothing less than</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>完全</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Day09(18)</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>2025-05-31 20:44:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Strike off</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>前进、出发</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Day44(8)</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>2025-05-31 20:44:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>prune back sth back</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>修剪（树枝）</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Day45(4)</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>《The unlikely pilgrimage of Harold Fry一个人的朝圣（蕾秋·乔伊斯）》</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>2025-05-31 20:46:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>all the time</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>经常、总是、老是</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Day67(5)</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>《The unlikely pilgrimage of Harold Fry一个人的朝圣（蕾秋·乔伊斯）》</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>2025-05-31 20:47:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>be given to</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>经常做、习惯于</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Day06(7)</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>2025-05-31 20:48:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>see sth out</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>坚持到某事结束</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Day42(10)</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>2025-05-31 20:51:47</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Error_Phrases.xlsx
+++ b/Error_Phrases.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E79"/>
+  <dimension ref="A1:E84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2566,6 +2566,141 @@
         </is>
       </c>
     </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>on the occasion of</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>在（重要事件）之际</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Day16(8)</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>2025-06-01 22:10:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>on occasion</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>有时、间或、偶尔</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Day11(10)</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>2025-06-01 22:13:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>get on</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>继续做</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Day03(3)</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>《The unlikely pilgrimage of Harold Fry一个人的朝圣（蕾秋·乔伊斯）》</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>2025-06-01 22:15:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>give in to sth</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>克服、屈服于</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Day87(5)</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>《The unlikely pilgrimage of Harold Fry一个人的朝圣（蕾秋·乔伊斯）》</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>2025-06-01 22:15:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>at a loss</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>不知所措、困惑</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Day23(9)</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>2025-06-01 22:16:24</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Error_Phrases.xlsx
+++ b/Error_Phrases.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E84"/>
+  <dimension ref="A1:E89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2701,6 +2701,141 @@
         </is>
       </c>
     </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>on one's behalf</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>因为某人、为了某人</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Day89(3)</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>《The unlikely pilgrimage of Harold Fry一个人的朝圣（蕾秋·乔伊斯）》</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>2025-06-02 13:59:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>hit out at sb</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>打（某人）</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Day12(8)</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>2025-06-02 14:01:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>give away</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>赠送、捐赠</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Day64(4)</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>《The unlikely pilgrimage of Harold Fry一个人的朝圣（蕾秋·乔伊斯）》</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>2025-06-02 14:02:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>make one's way</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>行进（尤指艰难地、或需要很长时间）</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Day73(6)</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>《The unlikely pilgrimage of Harold Fry一个人的朝圣（蕾秋·乔伊斯）》</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>2025-06-02 14:03:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>in light of</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>考虑到、鉴于</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Day80(4)</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>《The unlikely pilgrimage of Harold Fry一个人的朝圣（蕾秋·乔伊斯）》</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>2025-06-02 14:10:50</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Error_Phrases.xlsx
+++ b/Error_Phrases.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2836,6 +2836,87 @@
         </is>
       </c>
     </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>throw up</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>放弃</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Day21(8)</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>2025-06-04 10:23:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>look out for sth</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>努力寻找、注意寻找</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Day55(7)</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>2025-06-04 10:35:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>tear oneself away</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>忍痛离开、忍痛分手</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Day57(5)</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>2025-06-04 10:50:43</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Error_Phrases.xlsx
+++ b/Error_Phrases.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E92"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2917,6 +2917,249 @@
         </is>
       </c>
     </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>address sth to sb</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>向某人提出...</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Day17(15)</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>2025-06-05 08:38:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>be under way</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>已经开始</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Day99(3)</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>《The unlikely pilgrimage of Harold Fry一个人的朝圣（蕾秋·乔伊斯）》</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>2025-06-05 08:44:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>give in to sth</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>克服、屈服于</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Day87(5)</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>《The unlikely pilgrimage of Harold Fry一个人的朝圣（蕾秋·乔伊斯）》</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>2025-06-05 08:46:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>along with sb/sth</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>除......以外（还）、与......同样地</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Day30(6)</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>《The unlikely pilgrimage of Harold Fry一个人的朝圣（蕾秋·乔伊斯）》</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>2025-06-05 08:51:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>take up</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>接受（建议或能得到的东西）</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Day17(15)</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>2025-06-05 10:40:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>keep on doing sth</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>继续做、反复做</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Day23(5)</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>《The unlikely pilgrimage of Harold Fry一个人的朝圣（蕾秋·乔伊斯）》</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>2025-06-05 10:41:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>turn out</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>最终结果是、最终成为</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Day58(8)</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>2025-06-05 10:42:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>and so forth</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>等等</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Day22(10)</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>2025-06-05 10:45:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>get on</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>继续做</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Day03(3)</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>《The unlikely pilgrimage of Harold Fry一个人的朝圣（蕾秋·乔伊斯）》</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>2025-06-05 10:49:49</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Error_Phrases.xlsx
+++ b/Error_Phrases.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3160,6 +3160,168 @@
         </is>
       </c>
     </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>make no difference</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>对某人（或某个环境）没有影响</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Day92(6)</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>《The unlikely pilgrimage of Harold Fry一个人的朝圣（蕾秋·乔伊斯）》</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>2025-06-06 16:03:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>along with sb/sth</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>除......以外（还）、与......同样地</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Day30(6)</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>《The unlikely pilgrimage of Harold Fry一个人的朝圣（蕾秋·乔伊斯）》</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>2025-06-06 16:04:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>stick out</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>突出</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Day14(3)</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>《The unlikely pilgrimage of Harold Fry一个人的朝圣（蕾秋·乔伊斯）》</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>2025-06-06 16:06:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>go through one's mind</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>浮现在某人脑海里</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Day27(8)</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>2025-06-06 16:12:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>go through one's mind</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>浮现在某人脑海里</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Day27(8)</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>2025-06-06 18:44:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>turn out</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>最终结果是、最终成为</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Day58(8)</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>2025-06-06 18:50:26</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Error_Phrases.xlsx
+++ b/Error_Phrases.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E107"/>
+  <dimension ref="A1:E110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3322,6 +3322,87 @@
         </is>
       </c>
     </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>have difficulty doing</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>做某事很困难</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Day05(9)</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>2025-06-07 08:10:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>no more than</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>不过、仅仅</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Day21(8)</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>2025-06-07 08:12:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>apart from</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>除了...外（都）、要不是</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Day82(5)</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>《The unlikely pilgrimage of Harold Fry一个人的朝圣（蕾秋·乔伊斯）》</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>2025-06-07 10:38:56</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Error_Phrases.xlsx
+++ b/Error_Phrases.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E110"/>
+  <dimension ref="A1:E111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3403,6 +3403,33 @@
         </is>
       </c>
     </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>turn （from sth） into sth</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>变成某事物</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Day04(3)</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>《The unlikely pilgrimage of Harold Fry一个人的朝圣（蕾秋·乔伊斯）》</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>2025-06-10 09:20:10</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Error_Phrases.xlsx
+++ b/Error_Phrases.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E111"/>
+  <dimension ref="A1:E112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3430,6 +3430,33 @@
         </is>
       </c>
     </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>think of sth/sb</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>记得、想起</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Day59(2)</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>《The unlikely pilgrimage of Harold Fry一个人的朝圣（蕾秋·乔伊斯）》</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>2025-06-12 08:02:08</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Error_Phrases.xlsx
+++ b/Error_Phrases.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E109"/>
+  <dimension ref="A1:E116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3376,6 +3376,195 @@
         </is>
       </c>
     </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>be under way</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>已经开始</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Day99(3)</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>《The unlikely pilgrimage of Harold Fry一个人的朝圣（蕾秋·乔伊斯）》</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>2025-06-17 08:12:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>so as to</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>为了</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Day43(3)</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>《The unlikely pilgrimage of Harold Fry一个人的朝圣（蕾秋·乔伊斯）》</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>2025-06-17 08:15:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>occur to sb.</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>（主意或想法突然）浮现于脑中</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Day20(5)</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>2025-06-17 08:16:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>make up one's mind</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>下定决心</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Day28(8)</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>2025-06-17 08:19:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>call for sth</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>需要</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Day85(6)</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>《The unlikely pilgrimage of Harold Fry一个人的朝圣（蕾秋·乔伊斯）》</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>2025-06-17 08:21:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>out of place</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>不适当的、不相称的</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Day20(2)</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>《The unlikely pilgrimage of Harold Fry一个人的朝圣（蕾秋·乔伊斯）》</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>2025-06-17 08:21:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>be to do sth</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>不可避免、注定发生</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Day61(7)</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>2025-06-17 08:22:47</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Error_Phrases.xlsx
+++ b/Error_Phrases.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E116"/>
+  <dimension ref="A1:E121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3565,6 +3565,141 @@
         </is>
       </c>
     </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>put in for sth</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>正式要求、申请</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Day55(7)</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>2025-06-18 10:02:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>hold to</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>坚持</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Day38(6)</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>2025-06-18 10:10:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>hold down</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>控制某人的自由、使某人屈从</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Day50(9)</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>2025-06-18 10:12:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>take off</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>请假、休假、告假</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Day32(4)</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>《The unlikely pilgrimage of Harold Fry一个人的朝圣（蕾秋·乔伊斯）》</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>2025-06-18 10:16:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>once in a while</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>偶尔、有时、间或</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Day49(6)</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>《The unlikely pilgrimage of Harold Fry一个人的朝圣（蕾秋·乔伊斯）》</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>2025-06-18 10:16:37</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Error_Phrases.xlsx
+++ b/Error_Phrases.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E121"/>
+  <dimension ref="A1:E122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3700,6 +3700,33 @@
         </is>
       </c>
     </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>take a turn</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>转一圈</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Day19(9)</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>2025-07-04 09:36:20</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Error_Phrases.xlsx
+++ b/Error_Phrases.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E122"/>
+  <dimension ref="A1:E130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3727,6 +3727,222 @@
         </is>
       </c>
     </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>for good</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>永远、永久</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Day40(8)</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>《Great Expectations /Charles Dickens 远大前程/查尔斯·狄更斯》</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>2025-08-05 14:44:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>lie by</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>休息</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Day54(8)</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>《Great Expectations /Charles Dickens 远大前程/查尔斯·狄更斯》</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>2025-08-05 14:45:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>come off (sth)</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>与...分离(或分开)</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Day06(6)</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>2025-08-05 14:45:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>have no idea</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>丝毫不知道</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Day89(3)</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>《The unlikely pilgrimage of Harold Fry /Rachel Joyce 一个人的朝圣/蕾秋·乔伊斯》</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>2025-08-05 14:45:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>think better of sb</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>对...有更高的评价</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Day59(7)</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>《Great Expectations /Charles Dickens 远大前程/查尔斯·狄更斯》</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>2025-08-05 14:46:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>occur to sb</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>(想法或主意)浮现于脑海中</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Day72(6)</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>《Oliver Twist /Charles Dickens 雾都孤儿/查尔斯·狄更斯》</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>2025-08-05 14:48:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>as well as</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>除...之外、也、还</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Day49(6)</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>《The unlikely pilgrimage of Harold Fry /Rachel Joyce 一个人的朝圣/蕾秋·乔伊斯》</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>2025-08-05 14:49:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>come out</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>显露</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Day24(10)</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>《Great Expectations /Charles Dickens 远大前程/查尔斯·狄更斯》</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>2025-08-05 14:49:47</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
